--- a/subType表.xlsx
+++ b/subType表.xlsx
@@ -38,123 +38,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>房间调用SeeResult(int),int为被看的玩家座位号,返回值为bool，true为狼人，false为好人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问女巫是否救人,今晚死的人为Arguments[0],显示“今晚，他死了，你有一瓶解药，是否要救？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问女巫是否毒人,未死的人为Arguments[],显示“你有一瓶毒药，是否要毒？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问预言家看谁，未死的人为Arguments[]，显示“你想要了解谁的身份？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定参选警长者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求狼人讨论结果，可以被杀死的玩家为Arguments[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送纯文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长死亡，将警徽传递或撕毁，候选范围为Arguments[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长归票，发言，并决定发言顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：狼人 2：女巫 3：预言家 4：猎人 5：平民  无需返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“闭眼指令”，显示detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睁眼指令，显示detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送座位号Arguments[0]，并显示detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份编号Arguments[0],并在客户端显示detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用OfficerElection(int voter, int voted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用OfficerDecide(int x,bool direction)，x为警长归票的玩家编号，direction为（是否警左开始发言）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开狼人讨论聊天窗，全部的(存活)狼人为Arguments[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用DayVote()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求发言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不参选的玩家投票选警长，候选范围为Arguments[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向客户端后台宣布某人死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人发动技能，可带走Argument[]范围内的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用HunterKill(int target)  target!=-1时带走target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用OfficerPass(int receiver)，若撕毁，receiver = -1，否则警长变成receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人可刀对象表Arguments[],并在客户端显示detail=“请讨论夜间杀死的玩家”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需返回   此message用于通知客户端“你死了”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>房间调用WhisperResult(int)，int为receiverID选择的杀的玩家的座位号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间调用SeeResult(int),int为被看的玩家座位号,返回值为bool，true为狼人，false为好人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询问女巫是否救人,今晚死的人为Arguments[0],显示“今晚，他死了，你有一瓶解药，是否要救？”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询问女巫是否毒人,未死的人为Arguments[],显示“你有一瓶毒药，是否要毒？”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询问预言家看谁，未死的人为Arguments[]，显示“你想要了解谁的身份？”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定参选警长者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求狼人讨论结果，可以被杀死的玩家为Arguments[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用Candidate(QVector&lt;int&gt;),为参选玩家座位号列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送纯文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警长死亡，将警徽传递或撕毁，候选范围为Arguments[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警长归票，发言，并决定发言顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：狼人 2：女巫 3：预言家 4：猎人 5：平民  无需返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“闭眼指令”，显示detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睁眼指令，显示detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送座位号Arguments[0]，并显示detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份编号Arguments[0],并在客户端显示detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用OfficerElection(int voter, int voted)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用OfficerDecide(int x,bool direction)，x为警长归票的玩家编号，direction为（是否警左开始发言）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开狼人讨论聊天窗，全部的(存活)狼人为Arguments[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用DayVote()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需返回   此message用于通知客户端“你死了”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求发言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不参选的玩家投票选警长，候选范围为Arguments[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向客户端后台宣布某人死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎人发动技能，可带走Argument[]范围内的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用HunterKill(int target)  target!=-1时带走target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用OfficerPass(int receiver)，若撕毁，receiver = -1，否则警长变成receiver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼人可刀对象表Arguments[],并在客户端显示detail=“请讨论夜间杀死的玩家”</t>
+    <t>房间调用OfficerCandidate(int),为参选玩家座位号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -560,10 +560,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -582,10 +582,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -593,10 +593,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -604,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -637,10 +637,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -648,10 +648,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -659,10 +659,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -670,10 +670,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -681,10 +681,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -692,10 +692,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -703,10 +703,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -714,10 +714,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -725,10 +725,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -736,10 +736,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/subType表.xlsx
+++ b/subType表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>SubType值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,119 +42,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>询问预言家看谁，未死的人为Arguments[]，显示“你想要了解谁的身份？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定参选警长者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求狼人讨论结果，可以被杀死的玩家为Arguments[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送纯文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长死亡，将警徽传递或撕毁，候选范围为Arguments[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长归票，发言，并决定发言顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：狼人 2：女巫 3：预言家 4：猎人 5：平民  无需返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“闭眼指令”，显示detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睁眼指令，显示detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份编号Arguments[0],并在客户端显示detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用OfficerElection(int voter, int voted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用OfficerDecide(int x,bool direction)，x为警长归票的玩家编号，direction为（是否警左开始发言）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用DayVote()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不参选的玩家投票选警长，候选范围为Arguments[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向客户端后台宣布某人死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人发动技能，可带走Argument[]范围内的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用HunterKill(int target)  target!=-1时带走target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用OfficerPass(int receiver)，若撕毁，receiver = -1，否则警长变成receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人可刀对象表Arguments[],并在客户端显示detail=“请讨论夜间杀死的玩家”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需返回   此message用于通知客户端“你死了”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用WhisperResult(int)，int为receiverID选择的杀的玩家的座位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用OfficerCandidate(int),为参选玩家座位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅可发言人员可看见的发言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求发言，全体可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>询问女巫是否救人,今晚死的人为Arguments[0],显示“今晚，他死了，你有一瓶解药，是否要救？”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>询问女巫是否毒人,未死的人为Arguments[],显示“你有一瓶毒药，是否要毒？”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>询问预言家看谁，未死的人为Arguments[]，显示“你想要了解谁的身份？”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定参选警长者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求狼人讨论结果，可以被杀死的玩家为Arguments[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送纯文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警长死亡，将警徽传递或撕毁，候选范围为Arguments[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警长归票，发言，并决定发言顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：狼人 2：女巫 3：预言家 4：猎人 5：平民  无需返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“闭眼指令”，显示detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睁眼指令，显示detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送座位号Arguments[0]，并显示detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份编号Arguments[0],并在客户端显示detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用OfficerElection(int voter, int voted)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用OfficerDecide(int x,bool direction)，x为警长归票的玩家编号，direction为（是否警左开始发言）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开狼人讨论聊天窗，全部的(存活)狼人为Arguments[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用DayVote()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求发言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不参选的玩家投票选警长，候选范围为Arguments[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向客户端后台宣布某人死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎人发动技能，可带走Argument[]范围内的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用HunterKill(int target)  target!=-1时带走target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用OfficerPass(int receiver)，若撕毁，receiver = -1，否则警长变成receiver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼人可刀对象表Arguments[],并在客户端显示detail=“请讨论夜间杀死的玩家”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需返回   此message用于通知客户端“你死了”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用WhisperResult(int)，int为receiverID选择的杀的玩家的座位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用OfficerCandidate(int),为参选玩家座位号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,211 +531,200 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/subType表.xlsx
+++ b/subType表.xlsx
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间调用DayVote()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不参选的玩家投票选警长，候选范围为Arguments[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +147,10 @@
   </si>
   <si>
     <t>询问女巫是否毒人,未死的人为Arguments[],显示“你有一瓶毒药，是否要毒？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用DayVote(int voter, int voted)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -655,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -702,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -710,10 +710,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -721,10 +721,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/subType表.xlsx
+++ b/subType表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>SubType值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间调用MedicineResult(bool)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间调用PoisonResult(int)，若不毒，int=-1,若毒，int=被毒人座位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间调用SeeResult(int),int为被看的玩家座位号,返回值为bool，true为狼人，false为好人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间调用HunterKill(int target)  target!=-1时带走target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间调用OfficerPass(int receiver)，若撕毁，receiver = -1，否则警长变成receiver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间调用OfficerCandidate(int),为参选玩家座位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅可发言人员可看见的发言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要求发言，全体可见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +131,22 @@
   </si>
   <si>
     <t>房间调用DayVote(int voter, int voted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用PoisonResult(int)，int=被毒人座位号，不毒不调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用MedicineResult(bool)，不救不调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用OfficerCandidate(int),为参选玩家座位号，不参选不调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用HunterKill(int target)带走target，不带人则不调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +504,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -545,10 +541,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -556,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -567,21 +563,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -589,10 +574,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -600,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -611,10 +596,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -622,10 +607,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -633,10 +618,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -644,10 +629,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -655,10 +640,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -666,10 +651,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -677,10 +662,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -688,10 +673,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -699,10 +684,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -710,10 +695,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -721,10 +706,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/subType表.xlsx
+++ b/subType表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>SubType值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间调用WhisperResult(int)，int为receiverID选择的杀的玩家的座位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要求发言，全体可见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +143,18 @@
   </si>
   <si>
     <t>房间调用HunterKill(int target)带走target，不带人则不调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出警长竞选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用QuitOfficerElection(int),int为退选玩家座位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间调用WhisperResult(int x, int y)，x为做出选择者，y为receiverID选择的杀的玩家的座位号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +512,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,6 +577,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
@@ -577,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -585,10 +604,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -596,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -632,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -640,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -687,7 +706,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -709,7 +728,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
